--- a/NT_AirPollution.Admin/App_Data/Template/RoadReportTemplate.xlsx
+++ b/NT_AirPollution.Admin/App_Data/Template/RoadReportTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\case\Alvin\NT_AirPollution\NT_AirPollution.Admin\App_Data\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5900D5B-7C2C-45AC-B9A5-A3834C5B8102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E7C425-3070-4BE9-BB27-D07C7CD03E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{76329FB5-D827-49D5-9CD8-2D5C22E9ECC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>管制編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>認養期程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1月洗街距離(KM)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,6 +176,14 @@
   </si>
   <si>
     <t>作業方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>認養期程(起)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>認養期程(迄)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,11 +551,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469D30C4-856F-433A-BE13-021F5A697808}">
-  <dimension ref="A1:AK1"/>
+  <dimension ref="A1:AL1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AK1" sqref="A1:AK1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
@@ -561,13 +563,14 @@
     <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="35" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="36" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,85 +602,88 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
